--- a/documents/Activities Summary.xlsx
+++ b/documents/Activities Summary.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEONA\OneDrive\Documents\GitHub\mangose10.github.io\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="9555" windowHeight="7740"/>
   </bookViews>
@@ -16,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Club Name</t>
   </si>
   <si>
-    <t>Collegiate Cyber Defens Club CCDC</t>
-  </si>
-  <si>
     <t>Date of Initial Memberhsip</t>
   </si>
   <si>
@@ -58,12 +60,30 @@
   </si>
   <si>
     <t>CS Major</t>
+  </si>
+  <si>
+    <t>Collegiate Cyber Defense Club CCDC</t>
+  </si>
+  <si>
+    <t>Volunteer Activity Name</t>
+  </si>
+  <si>
+    <t>Hours Participated</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>*Signed up not done yet*</t>
+  </si>
+  <si>
+    <t>UCF Hour of Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,14 +156,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -151,6 +167,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -163,6 +189,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -211,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +273,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +325,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -471,72 +534,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="3">
+        <v>42678</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>42678</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="3">
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5">
-        <v>42680</v>
-      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42704</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
